--- a/xlsx/中国大百科全书_intext.xlsx
+++ b/xlsx/中国大百科全书_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>中国大百科全书</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7%E4%B9%A6</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97</t>
@@ -149,61 +149,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>天文學</t>
+    <t>天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>體育</t>
+    <t>体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B2%E6%9B%B2</t>
   </si>
   <si>
-    <t>戲曲</t>
+    <t>戏曲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B2%E8%97%9D</t>
   </si>
   <si>
-    <t>曲藝</t>
+    <t>曲艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A1%E7%B9%94</t>
   </si>
   <si>
-    <t>紡織</t>
+    <t>纺织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>力學</t>
+    <t>力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E7%B9%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>測繪學</t>
+    <t>测绘学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%96%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>空間科學</t>
+    <t>空间科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA</t>
@@ -239,19 +239,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%AD%B8</t>
   </si>
   <si>
-    <t>電子學</t>
+    <t>电子学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>計算機</t>
+    <t>计算机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>中國文學</t>
+    <t>中国文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%9C%A8%E5%B7%A5%E7%A8%8B</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>大氣科學</t>
+    <t>大气科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>海洋科學</t>
+    <t>海洋科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%96%87%E7%A7%91%E5%AD%A6</t>
@@ -281,19 +281,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理學</t>
+    <t>物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>機械工程</t>
+    <t>机械工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%B7%A5</t>
@@ -317,37 +314,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E6%9E%97</t>
   </si>
   <si>
-    <t>園林</t>
+    <t>园林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
   </si>
   <si>
-    <t>城市規劃</t>
+    <t>城市规划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>音樂</t>
+    <t>音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%9E%E8%B9%88</t>
@@ -359,49 +356,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>戲劇</t>
+    <t>戏剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>自動控制</t>
+    <t>自动控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>系統工程</t>
+    <t>系统工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>新聞</t>
+    <t>新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88</t>
@@ -413,43 +410,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A1%93</t>
   </si>
   <si>
-    <t>美術</t>
+    <t>美术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國歷史</t>
+    <t>中国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>中國地理</t>
+    <t>中国地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8</t>
   </si>
   <si>
-    <t>圖書</t>
+    <t>图书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%8A%A5</t>
@@ -461,19 +458,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88</t>
   </si>
   <si>
-    <t>檔案</t>
+    <t>档案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B3%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>地質學</t>
+    <t>地质学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E7%89%A9</t>
@@ -557,13 +554,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
-    <t>中国历史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%9D%83</t>
   </si>
   <si>
-    <t>著作权</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B9%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
@@ -581,9 +575,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>中華百科全書</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/MBA%E6%99%BA%E5%BA%93%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
@@ -605,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>中文維基百科</t>
+    <t>中文维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/360%E7%99%BE%E7%A7%91</t>
@@ -629,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%B2%E7%B5%A1%E5%A4%A7%E5%85%B8</t>
   </si>
   <si>
-    <t>香港網絡大典</t>
+    <t>香港网络大典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%85%B8</t>
@@ -641,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%AE%A2%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>維客中國</t>
+    <t>维客中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%BA%93</t>
@@ -653,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%A4%A9%E6%9B%B8</t>
   </si>
   <si>
-    <t>網絡天書</t>
+    <t>网络天书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AcFun</t>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>台灣大百科全書</t>
+    <t>台湾大百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -2295,7 +2286,7 @@
         <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2321,10 +2312,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2350,10 +2341,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2379,10 +2370,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2408,10 +2399,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2437,10 +2428,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2466,10 +2457,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2495,10 +2486,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2524,10 +2515,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2553,10 +2544,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2582,10 +2573,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2611,10 +2602,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2640,10 +2631,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2669,10 +2660,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2698,10 +2689,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2727,10 +2718,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2756,10 +2747,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2785,10 +2776,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2814,10 +2805,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2843,10 +2834,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2872,10 +2863,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2901,10 +2892,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>14</v>
@@ -2930,10 +2921,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2959,10 +2950,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2988,10 +2979,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3017,10 +3008,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3046,10 +3037,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3075,10 +3066,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3104,10 +3095,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3133,10 +3124,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3162,10 +3153,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3191,10 +3182,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3220,10 +3211,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3249,10 +3240,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3278,10 +3269,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3307,10 +3298,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3336,10 +3327,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3365,10 +3356,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3394,10 +3385,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3423,10 +3414,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3452,10 +3443,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3481,10 +3472,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3510,10 +3501,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3539,10 +3530,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3568,10 +3559,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3597,10 +3588,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3626,10 +3617,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3655,10 +3646,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3684,10 +3675,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3713,10 +3704,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3742,10 +3733,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3771,10 +3762,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3800,10 +3791,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3829,10 +3820,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3858,10 +3849,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3887,10 +3878,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3916,10 +3907,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3945,10 +3936,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3974,10 +3965,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4003,10 +3994,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4032,10 +4023,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4061,10 +4052,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4090,10 +4081,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4119,10 +4110,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4148,10 +4139,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4177,10 +4168,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4206,10 +4197,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
